--- a/2.DesignChallenge/DesignChallenge.xlsx
+++ b/2.DesignChallenge/DesignChallenge.xlsx
@@ -1,57 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PERSONAL\PROYECTOS\GIT_HUB\tech_challenge\2.DesignChallenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_HUB\tech_challenge\2.DesignChallenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4BFA33-839A-44CD-8A35-53410372D59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8749CC-0D76-4639-9D14-83711E638929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9226CCE-9680-4006-B89A-D02504AC6505}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E9226CCE-9680-4006-B89A-D02504AC6505}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Comercio 1 - Venta Mes" sheetId="2" r:id="rId1"/>
+    <sheet name="Proyección" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Cantidad de Comercios</t>
+    <t>Día</t>
   </si>
   <si>
-    <t>Comercio</t>
+    <t>Ventas del día</t>
   </si>
   <si>
-    <t>Ventas al al dia (Moneda)</t>
+    <t>Validaciones de cupón</t>
   </si>
   <si>
-    <t>Vlidación por cupón</t>
+    <t>Comisión por Venta</t>
   </si>
   <si>
-    <t>Cominisión</t>
+    <t>Comisión por validación de cupón</t>
   </si>
   <si>
-    <t>Moneda</t>
+    <t>Por validaciones (€)</t>
   </si>
   <si>
-    <t>Total comisión al día=&gt;</t>
+    <t>Por Ventas - 1.5% (€)</t>
   </si>
   <si>
-    <t>Comisión Aprox. al día por comercio</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>Comisión Aprox. al mes por comercio</t>
+    <t>Comisiones</t>
+  </si>
+  <si>
+    <t>Ingreso Mensual</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Cantidad de comercios</t>
+  </si>
+  <si>
+    <t>x=&gt;</t>
   </si>
 </sst>
 </file>
@@ -61,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,16 +103,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,25 +134,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -131,9 +210,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -171,7 +250,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -277,7 +356,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -419,112 +498,845 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC5F7D0-5291-4C8F-85DD-94B43AEE7BC4}">
-  <dimension ref="A2:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA7D336-16A3-4797-BF84-D07885C2B490}">
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2850</v>
+      </c>
+      <c r="C6" s="8">
+        <v>92</v>
+      </c>
+      <c r="D6" s="4">
+        <f>B6*$B$1</f>
+        <v>42.75</v>
+      </c>
+      <c r="E6" s="4">
+        <f>C6*$B$2</f>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="F6" s="4">
+        <f>+D6+E6</f>
+        <v>47.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3120</v>
+      </c>
+      <c r="C7" s="8">
+        <v>105</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:D35" si="0">B7*$B$1</f>
+        <v>46.8</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" ref="E7:E35" si="1">C7*$B$2</f>
+        <v>5.25</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" ref="F7:F35" si="2">+D7+E7</f>
+        <v>52.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2980</v>
+      </c>
+      <c r="C8" s="8">
+        <v>97</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>44.699999999999996</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>4.8500000000000005</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>49.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B9" s="4">
+        <v>3300</v>
+      </c>
+      <c r="C9" s="8">
+        <v>110</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>49.5</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+      <c r="B10" s="4">
+        <v>2760</v>
+      </c>
+      <c r="C10" s="8">
+        <v>88</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>41.4</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="2"/>
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3050</v>
+      </c>
+      <c r="C11" s="8">
+        <v>102</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>45.75</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>50.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3400</v>
+      </c>
+      <c r="C12" s="8">
+        <v>115</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>56.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2910</v>
+      </c>
+      <c r="C13" s="8">
+        <v>95</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>43.65</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>4.75</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="2"/>
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3180</v>
+      </c>
+      <c r="C14" s="8">
+        <v>108</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>47.699999999999996</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="2"/>
+        <v>53.099999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2830</v>
+      </c>
+      <c r="C15" s="8">
+        <v>90</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>42.449999999999996</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="2"/>
+        <v>46.949999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3020</v>
+      </c>
+      <c r="C16" s="8">
+        <v>101</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>45.3</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="1"/>
+        <v>5.0500000000000007</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="2"/>
+        <v>50.349999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3260</v>
+      </c>
+      <c r="C17" s="8">
+        <v>112</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>48.9</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="2"/>
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2890</v>
+      </c>
+      <c r="C18" s="8">
+        <v>94</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>43.35</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="2"/>
+        <v>48.050000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3500</v>
+      </c>
+      <c r="C19" s="8">
+        <v>118</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="1"/>
+        <v>5.9</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2740</v>
+      </c>
+      <c r="C20" s="8">
+        <v>85</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>41.1</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="2"/>
+        <v>45.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4">
+        <v>3060</v>
+      </c>
+      <c r="C21" s="8">
+        <v>103</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>45.9</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="1"/>
+        <v>5.15</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="2"/>
+        <v>51.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3210</v>
+      </c>
+      <c r="C22" s="8">
+        <v>109</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>48.15</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="1"/>
+        <v>5.45</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="2"/>
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2920</v>
+      </c>
+      <c r="C23" s="8">
+        <v>96</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>43.8</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="2"/>
+        <v>48.599999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3330</v>
+      </c>
+      <c r="C24" s="8">
+        <v>113</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>49.949999999999996</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="1"/>
+        <v>5.65</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="2"/>
+        <v>55.599999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2810</v>
+      </c>
+      <c r="C25" s="8">
+        <v>89</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>42.15</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="1"/>
+        <v>4.45</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="2"/>
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4">
+        <v>3100</v>
+      </c>
+      <c r="C26" s="8">
+        <v>104</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>46.5</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="2"/>
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4">
+        <v>3450</v>
+      </c>
+      <c r="C27" s="8">
+        <v>120</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>51.75</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="2"/>
+        <v>57.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2870</v>
+      </c>
+      <c r="C28" s="8">
+        <v>93</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>43.05</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="1"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="2"/>
+        <v>47.699999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>24</v>
+      </c>
+      <c r="B29" s="4">
+        <v>3190</v>
+      </c>
+      <c r="C29" s="8">
+        <v>107</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>47.85</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="1"/>
+        <v>5.3500000000000005</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="2"/>
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>25</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2950</v>
+      </c>
+      <c r="C30" s="8">
+        <v>98</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>44.25</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="2"/>
+        <v>49.15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4">
+        <v>3280</v>
+      </c>
+      <c r="C31" s="8">
+        <v>111</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>49.199999999999996</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="1"/>
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="2"/>
+        <v>54.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2800</v>
+      </c>
+      <c r="C32" s="8">
+        <v>87</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="1"/>
+        <v>4.3500000000000005</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="2"/>
+        <v>46.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4">
+        <v>3360</v>
+      </c>
+      <c r="C33" s="8">
+        <v>114</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="0"/>
+        <v>50.4</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="1"/>
+        <v>5.7</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="2"/>
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>29</v>
+      </c>
+      <c r="B34" s="4">
         <v>3000</v>
       </c>
-      <c r="C4" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D4">
-        <f>B4*C4</f>
+      <c r="C34" s="8">
+        <v>100</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>0.05</v>
-      </c>
-      <c r="D5">
-        <f>B5*C5</f>
+      <c r="E34" s="4">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2">
-        <f>SUM(D4:D5)</f>
+      <c r="F34" s="4">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <f>D6</f>
-        <v>50</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <f>B8*30</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>7000</v>
-      </c>
-      <c r="C13" s="6">
-        <f>B9*B13</f>
-        <v>10500000</v>
-      </c>
-      <c r="D13" s="2"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>30</v>
+      </c>
+      <c r="B35" s="4">
+        <v>3420</v>
+      </c>
+      <c r="C35" s="8">
+        <v>116</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="0"/>
+        <v>51.3</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="1"/>
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="2"/>
+        <v>57.099999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="12">
+        <f t="shared" ref="D36:F36" si="3">SUM(D6:D35)</f>
+        <v>1388.1</v>
+      </c>
+      <c r="E36" s="12">
+        <f t="shared" si="3"/>
+        <v>153.60000000000002</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="3"/>
+        <v>1541.6999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC5F7D0-5291-4C8F-85DD-94B43AEE7BC4}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1541.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <f>(A2*B3)/B2</f>
+        <v>6486.3462411623532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
